--- a/Excel/Curso 4/aula 1.xlsx
+++ b/Excel/Curso 4/aula 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neolu\OneDrive\Área de Trabalho\Lucas\Alura\Excel\Curso 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BB18CD-42B5-4348-8027-EEB33F9E0275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC3E77-8C51-433B-86D3-A9C9909892AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B673A230-CF2B-4926-840F-06DAC6DEF54A}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -177,7 +177,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,6 +250,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1248,7 +1257,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8ABBE291-84C2-4883-B3DF-81502E168330}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8ABBE291-84C2-4883-B3DF-81502E168330}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -1329,7 +1338,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5742D65-B718-457F-8B97-3FE1011B56E6}" name="Tabela dinâmica4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5742D65-B718-457F-8B97-3FE1011B56E6}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -1704,9 +1713,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF43014-4B34-4E93-83FA-314EE3092629}">
-  <dimension ref="A3:B9"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1772,8 +1781,12 @@
         <v>25154.466719025906</v>
       </c>
     </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3094,6 +3107,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DADAA82B37D6A34396C9A79382D322B2" ma:contentTypeVersion="7" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1793825d7b05ea3989becfa6f4c745dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44473e96-bad3-4ccd-b3db-2438e2abade5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="056e6b85bc79c915fb5c20b44a88eb3f" ns3:_="">
     <xsd:import namespace="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
@@ -3257,35 +3285,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E692FDF-EAFF-4092-8ABB-67254EBFAA57}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4CE2725-B27F-4F45-8730-2F37D1E15C2D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3307,9 +3310,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4CE2725-B27F-4F45-8730-2F37D1E15C2D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E692FDF-EAFF-4092-8ABB-67254EBFAA57}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>